--- a/OldChangKee_3statement.xlsx
+++ b/OldChangKee_3statement.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian\OneDrive\Desktop\portfolio_certifications_rebuilt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE52A38-6C44-43AD-9013-60710DF92C5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD5E87A-77AA-490C-8CB4-32528601B0AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1440" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -961,7 +961,7 @@
   <dimension ref="B1:M137"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L84" sqref="L84"/>
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
